--- a/data/trans_camb/P25A_7_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,02</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,79</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,19</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,3</t>
+          <t>-1,99; 12,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 12,51</t>
+          <t>1,44; 14,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 65,96</t>
+          <t>-1,52; 15,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 7,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 45,42</t>
+          <t>-17,41; 2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,57</t>
+          <t>-13,82; 5,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,36</t>
+          <t>-11,5; 10,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,35; 52,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 4,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 8,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 11,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>552,12%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>124,35%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>215,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 105,57</t>
+          <t>-18,63; 265,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 188,22</t>
+          <t>6,71; 304,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295,53; 975,58</t>
+          <t>-15,33; 327,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 13,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 31,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 185,33</t>
+          <t>-41,39; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 20,2</t>
+          <t>-34,42; 18,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 47,37</t>
+          <t>-29,89; 40,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>156,78; 303,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-30,89; 27,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 48,56</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 60,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,12</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,11</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,47</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,53</t>
+          <t>-5,73; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 6,6</t>
+          <t>-3,02; 6,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,62; 63,94</t>
+          <t>0,03; 13,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,65; 54,55</t>
+          <t>-8,39; 3,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,27</t>
+          <t>-6,88; 5,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,22</t>
+          <t>-3,86; 9,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,53; 57,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 1,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 3,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 8,4</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>755,44%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>232,08%</t>
+          <t>-11,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>372,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 28,15</t>
+          <t>-51,02; 27,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 109,06</t>
+          <t>-30,09; 94,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>523,89; 1083,35</t>
+          <t>-2,66; 197,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 27,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>171,44; 305,52</t>
+          <t>-34,94; 19,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 10,82</t>
+          <t>-27,37; 30,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 34,48</t>
+          <t>-16,52; 50,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>291,46; 464,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-33,17; 12,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 31,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 62,67</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,24</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,28</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,48</t>
+          <t>-8,6; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,03</t>
+          <t>-7,38; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,75; 62,82</t>
+          <t>-4,77; 9,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,93; 69,69</t>
+          <t>-7,59; 1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,17</t>
+          <t>-5,78; 4,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,8</t>
+          <t>-5,57; 4,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,91; 63,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 0,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 2,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 4,88</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-14,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>403,41%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>486,44%</t>
+          <t>-20,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>458,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-22,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-9,46%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 34,9</t>
+          <t>-54,35; 19,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 47,86</t>
+          <t>-47,95; 41,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>179,47; 705,62</t>
+          <t>-33,12; 107,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 29,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 53,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>323,05; 700,58</t>
+          <t>-45,08; 18,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 11,61</t>
+          <t>-35,27; 38,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 38,75</t>
+          <t>-33,41; 44,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>318,87; 636,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-42,97; 6,85</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-33,48; 21,99</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; 44,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,28</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,93</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>50,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,75</t>
+          <t>-6,47; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,56; 60,0</t>
+          <t>-1,04; 7,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,43; 52,55</t>
+          <t>-8,13; 3,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,67</t>
+          <t>-2,54; 9,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,57; 54,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 1,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 6,82</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-26,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>593,43%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>236,84%</t>
+          <t>-12,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>347,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,43%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>23,3%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 22,9</t>
+          <t>-59,35; 31,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 68,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>442,73; 768,23</t>
+          <t>-12,12; 123,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 7,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 22,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>194,8; 287,31</t>
+          <t>-37,38; 18,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 27,31</t>
+          <t>-12,17; 55,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>296,79; 408,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-38,01; 9,72</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 55,57</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 1,34</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 5,24</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 7,68</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 0,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 3,31</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 5,78</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 0,15</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 3,22</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 5,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42,82%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-12,5%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-11,86%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>21,2%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-31,54; 16,24</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 65,78</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 94,96</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-25,46; 0,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 17,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 30,52</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 0,98</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 22,83</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 41,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
